--- a/config_12.15/game_gift_style_config.xlsx
+++ b/config_12.15/game_gift_style_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_10.27\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_12.15\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -512,135 +512,139 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>mrth_dk_mrth</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cjslb_bg_1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>gdnlb_bg_1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>wylb_bg_wylb</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>wylb_bg_2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>nxxlb_bg_1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日特惠礼包免费用户，模板4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日特惠礼包新用户，模板4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日特惠礼包小额用户，模板4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日特惠礼包v1-3，模板4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日特惠礼包v4-7，模板4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日特惠礼包v8以上，模板4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FFEABFFF</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_498y","bag_icon_jipaiqi","com_award_icon_chanz1","ty_icon_jb_998y","bag_icon_jipaiqi","com_award_icon_chanz2","ty_icon_jb_2498y","bag_icon_jipaiqi","com_award_icon_chanz3",</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_498y","bag_icon_jipaiqi","com_award_icon_chanz1","ty_icon_jb_998y","com_award_icon_yb1","com_award_icon_chanz2","ty_icon_jb_2498y","com_award_icon_yb2","com_award_icon_chanz3",</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_498y","com_icon_yb","com_award_icon_chanz1","ty_icon_jb_998y","com_award_icon_yb1","com_award_icon_chanz2","ty_icon_jb_2498y","com_award_icon_yb2","com_award_icon_chanz3",</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_498y","ty_icon_jb_30y","ty_icon_yxb_2","ty_icon_jb_998y","ty_icon_jb_50y","ty_icon_yxb_2","ty_icon_jb_2498y","ty_icon_jb_198y","ty_icon_yxb_2",</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_498y","ty_icon_jb_30y","3dby_btn_sd","ty_icon_jb_998y","ty_icon_jb_50y","3dby_btn_sd","ty_icon_jb_2498y","ty_icon_jb_198y","3dby_btn_sd",</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_498y","ty_icon_jb_30y","3dby_btn_sd","ty_icon_jb_998y","ty_icon_jb_50y","ty_icon_yxb_2","ty_icon_jb_2498y","ty_icon_jb_198y","ty_icon_yxb_4",</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_498y","ty_icon_jb_30y","ty_icon_yxb_2","ty_icon_jb_998y","ty_icon_jb_50y","ty_icon_yxb_4","ty_icon_jb_2498y","ty_icon_jb_198y","ty_icon_yxb_5",</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_498y","ty_icon_jb_30y","bag_icon_jipaiqi","ty_icon_jb_998y","ty_icon_jb_50y","bag_icon_jipaiqi","ty_icon_jb_2498y","ty_icon_jb_198y","bag_icon_jipaiqi",</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_498y","ty_icon_jb_30y","bag_icon_jipaiqi","ty_icon_jb_998y","ty_icon_jb_50y","com_award_icon_yb1","ty_icon_jb_2498y","ty_icon_jb_198y","com_award_icon_yb2",</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_498y","ty_icon_jb_30y","com_icon_yb","ty_icon_jb_998y","ty_icon_jb_50y","com_award_icon_yb1","ty_icon_jb_2498y","ty_icon_jb_198y","com_award_icon_yb2",</t>
+  </si>
+  <si>
+    <t>cpl_notcjj</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_cjj</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>key|权限</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_498y","ty_icon_jb_30y","com_award_icon_cz1","ty_icon_jb_998y","ty_icon_jb_50y","com_award_icon_cz1","ty_icon_jb_2498y","ty_icon_jb_198y","com_award_icon_cz1",</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_498y","ty_icon_jb_30y","com_award_icon_cz1","ty_icon_jb_998y","ty_icon_jb_50y","ty_icon_yxb_2","ty_icon_jb_2498y","ty_icon_jb_198y","ty_icon_yxb_4",</t>
+  </si>
+  <si>
+    <t>10346,10347,10348,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10349,10091,10092,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>10239,10240,10241,</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>mrth_dk_mrth</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>cjslb_bg_1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>gdnlb_bg_1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>wylb_bg_wylb</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>wylb_bg_2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>nxxlb_bg_1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日特惠礼包免费用户，模板4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日特惠礼包新用户，模板4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日特惠礼包小额用户，模板4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日特惠礼包v1-3，模板4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日特惠礼包v4-7，模板4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日特惠礼包v8以上，模板4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>FFEABFFF</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"60万","10万","5万","480万","20万","10万","980万","30万","20万",</t>
-  </si>
-  <si>
-    <t>"180万","10万","10万","480万","20万","10万","980万","30万","20万",</t>
-  </si>
-  <si>
-    <t>"480万","20万","10万","980万","30万","20万","1980万","80万","30万",</t>
-  </si>
-  <si>
-    <t>"980万","30万","20万","1980万","80万","30万","4980万","150万","50万",</t>
-  </si>
-  <si>
-    <t>"60万","20万","3","100万","20万","10万","180万","20万","20万",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"10万","10万","1","30万","20万","2","60万","30万","3",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_jb_498y","bag_icon_jipaiqi","com_award_icon_chanz1","ty_icon_jb_998y","bag_icon_jipaiqi","com_award_icon_chanz2","ty_icon_jb_2498y","bag_icon_jipaiqi","com_award_icon_chanz3",</t>
-  </si>
-  <si>
-    <t>"ty_icon_jb_498y","bag_icon_jipaiqi","com_award_icon_chanz1","ty_icon_jb_998y","com_award_icon_yb1","com_award_icon_chanz2","ty_icon_jb_2498y","com_award_icon_yb2","com_award_icon_chanz3",</t>
-  </si>
-  <si>
-    <t>"ty_icon_jb_498y","com_icon_yb","com_award_icon_chanz1","ty_icon_jb_998y","com_award_icon_yb1","com_award_icon_chanz2","ty_icon_jb_2498y","com_award_icon_yb2","com_award_icon_chanz3",</t>
-  </si>
-  <si>
-    <t>"ty_icon_jb_498y","ty_icon_jb_30y","ty_icon_yxb_2","ty_icon_jb_998y","ty_icon_jb_50y","ty_icon_yxb_2","ty_icon_jb_2498y","ty_icon_jb_198y","ty_icon_yxb_2",</t>
-  </si>
-  <si>
-    <t>"ty_icon_jb_498y","ty_icon_jb_30y","3dby_btn_sd","ty_icon_jb_998y","ty_icon_jb_50y","3dby_btn_sd","ty_icon_jb_2498y","ty_icon_jb_198y","3dby_btn_sd",</t>
-  </si>
-  <si>
-    <t>"ty_icon_jb_498y","ty_icon_jb_30y","3dby_btn_sd","ty_icon_jb_998y","ty_icon_jb_50y","ty_icon_yxb_2","ty_icon_jb_2498y","ty_icon_jb_198y","ty_icon_yxb_4",</t>
-  </si>
-  <si>
-    <t>"ty_icon_jb_498y","ty_icon_jb_30y","ty_icon_yxb_2","ty_icon_jb_998y","ty_icon_jb_50y","ty_icon_yxb_4","ty_icon_jb_2498y","ty_icon_jb_198y","ty_icon_yxb_5",</t>
-  </si>
-  <si>
-    <t>"ty_icon_jb_498y","ty_icon_jb_30y","bag_icon_jipaiqi","ty_icon_jb_998y","ty_icon_jb_50y","bag_icon_jipaiqi","ty_icon_jb_2498y","ty_icon_jb_198y","bag_icon_jipaiqi",</t>
-  </si>
-  <si>
-    <t>"ty_icon_jb_498y","ty_icon_jb_30y","bag_icon_jipaiqi","ty_icon_jb_998y","ty_icon_jb_50y","com_award_icon_yb1","ty_icon_jb_2498y","ty_icon_jb_198y","com_award_icon_yb2",</t>
-  </si>
-  <si>
-    <t>"ty_icon_jb_498y","ty_icon_jb_30y","com_icon_yb","ty_icon_jb_998y","ty_icon_jb_50y","com_award_icon_yb1","ty_icon_jb_2498y","ty_icon_jb_198y","com_award_icon_yb2",</t>
-  </si>
-  <si>
-    <t>cpl_notcjj</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>cpl_cjj</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>key|权限</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_jb_498y","ty_icon_jb_30y","com_award_icon_cz1","ty_icon_jb_998y","ty_icon_jb_50y","com_award_icon_cz1","ty_icon_jb_2498y","ty_icon_jb_198y","com_award_icon_cz1",</t>
-  </si>
-  <si>
-    <t>"ty_icon_jb_498y","ty_icon_jb_30y","com_award_icon_cz1","ty_icon_jb_998y","ty_icon_jb_50y","ty_icon_yxb_2","ty_icon_jb_2498y","ty_icon_jb_198y","ty_icon_yxb_4",</t>
-  </si>
-  <si>
-    <t>10346,10347,10348,</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>10349,10091,10092,</t>
+    <t>"30万","40万","5万","240万","260万","10万","490万","520万","20万",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"5万","15万","1","15万","35万","2","30万","60万","3",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"30万","50万","3","50万","70万","10万","90万","110万","20万",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"90万","100万","10万","240万","260万","10万","490万","520万","20万",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"240万","260万","10万","490万","520万","20万","990万","1070万","30万",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"490万","520万","20万","990万","1070万","30万","2490万","2640万","50万",</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1094,10 +1098,10 @@
   <dimension ref="A1:U31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomRight" activeCell="P10" sqref="P10:P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1133,7 +1137,7 @@
         <v>20</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="E1" s="22" t="s">
         <v>1</v>
@@ -1283,13 +1287,13 @@
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="24" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>98</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H4" s="8" t="s">
         <v>96</v>
@@ -1311,13 +1315,13 @@
         <v>49</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P4" s="25" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="Q4" s="26" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="R4" s="25"/>
       <c r="S4" s="25"/>
@@ -1325,7 +1329,7 @@
         <v>1</v>
       </c>
       <c r="U4" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:21" s="20" customFormat="1">
@@ -1339,7 +1343,7 @@
         <v>23</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>24</v>
@@ -1373,10 +1377,10 @@
         <v>65</v>
       </c>
       <c r="P5" s="19" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="Q5" s="21" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="R5" s="19"/>
       <c r="S5" s="19"/>
@@ -1384,7 +1388,7 @@
         <v>1</v>
       </c>
       <c r="U5" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:21" s="20" customFormat="1">
@@ -1398,7 +1402,7 @@
         <v>23</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>28</v>
@@ -1432,10 +1436,10 @@
         <v>65</v>
       </c>
       <c r="P6" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q6" s="21" t="s">
         <v>153</v>
-      </c>
-      <c r="Q6" s="21" t="s">
-        <v>160</v>
       </c>
       <c r="R6" s="19"/>
       <c r="S6" s="19"/>
@@ -1443,7 +1447,7 @@
         <v>1</v>
       </c>
       <c r="U6" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:21" s="3" customFormat="1">
@@ -1489,10 +1493,10 @@
         <v>65</v>
       </c>
       <c r="P7" s="25" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="Q7" s="26" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="R7" s="25"/>
       <c r="S7" s="25"/>
@@ -1500,7 +1504,7 @@
         <v>1</v>
       </c>
       <c r="U7" s="25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:21" s="3" customFormat="1">
@@ -1546,10 +1550,10 @@
         <v>65</v>
       </c>
       <c r="P8" s="25" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="Q8" s="26" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="R8" s="25"/>
       <c r="S8" s="25"/>
@@ -1557,7 +1561,7 @@
         <v>1</v>
       </c>
       <c r="U8" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:21" s="3" customFormat="1">
@@ -1603,10 +1607,10 @@
         <v>65</v>
       </c>
       <c r="P9" s="25" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="Q9" s="26" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="R9" s="25"/>
       <c r="S9" s="25"/>
@@ -1614,7 +1618,7 @@
         <v>1</v>
       </c>
       <c r="U9" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:21" s="20" customFormat="1">
@@ -1628,10 +1632,10 @@
         <v>23</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="F10" s="16" t="s">
         <v>98</v>
@@ -1662,10 +1666,10 @@
         <v>65</v>
       </c>
       <c r="P10" s="19" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="Q10" s="21" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="R10" s="19"/>
       <c r="S10" s="19"/>
@@ -1673,7 +1677,7 @@
         <v>1</v>
       </c>
       <c r="U10" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:21" s="20" customFormat="1">
@@ -1687,10 +1691,10 @@
         <v>23</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="F11" s="16" t="s">
         <v>95</v>
@@ -1721,10 +1725,10 @@
         <v>65</v>
       </c>
       <c r="P11" s="19" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="Q11" s="21" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="R11" s="19"/>
       <c r="S11" s="19"/>
@@ -1732,7 +1736,7 @@
         <v>1</v>
       </c>
       <c r="U11" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:21" s="13" customFormat="1">
@@ -1750,7 +1754,7 @@
         <v>70</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>67</v>
@@ -1781,7 +1785,7 @@
         <v>29</v>
       </c>
       <c r="Q12" s="27" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="R12" s="25"/>
       <c r="S12" s="25"/>
@@ -1838,7 +1842,7 @@
         <v>93</v>
       </c>
       <c r="Q13" s="27" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="R13" s="25"/>
       <c r="S13" s="25"/>
@@ -1895,7 +1899,7 @@
         <v>94</v>
       </c>
       <c r="Q14" s="27" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="R14" s="25"/>
       <c r="S14" s="25"/>
@@ -1952,7 +1956,7 @@
         <v>30</v>
       </c>
       <c r="Q15" s="27" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="R15" s="25"/>
       <c r="S15" s="25"/>
@@ -2009,7 +2013,7 @@
         <v>31</v>
       </c>
       <c r="Q16" s="27" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="R16" s="25"/>
       <c r="S16" s="25"/>
@@ -2035,7 +2039,7 @@
         <v>75</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>99</v>
@@ -2056,13 +2060,13 @@
         <v>60</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P17" s="6" t="s">
         <v>29</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="T17" s="6">
         <v>0</v>
@@ -2113,7 +2117,7 @@
         <v>93</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="T18" s="6">
         <v>0</v>
@@ -2164,7 +2168,7 @@
         <v>94</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="T19" s="6">
         <v>0</v>
@@ -2215,7 +2219,7 @@
         <v>30</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="T20" s="6">
         <v>0</v>
@@ -2266,7 +2270,7 @@
         <v>31</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="T21" s="6">
         <v>0</v>
@@ -2290,10 +2294,10 @@
         <v>100</v>
       </c>
       <c r="F22" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="G22" s="8" t="s">
         <v>139</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>140</v>
       </c>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
@@ -2317,7 +2321,7 @@
         <v>121</v>
       </c>
       <c r="Q22" s="26" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R22" s="25"/>
       <c r="S22" s="25"/>
@@ -2370,7 +2374,7 @@
         <v>122</v>
       </c>
       <c r="Q23" s="27" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R23" s="25"/>
       <c r="S23" s="25"/>
@@ -2423,7 +2427,7 @@
         <v>123</v>
       </c>
       <c r="Q24" s="27" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R24" s="25"/>
       <c r="S24" s="25"/>
@@ -2476,7 +2480,7 @@
         <v>124</v>
       </c>
       <c r="Q25" s="27" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R25" s="25"/>
       <c r="S25" s="25"/>
@@ -2529,7 +2533,7 @@
         <v>125</v>
       </c>
       <c r="Q26" s="27" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R26" s="25"/>
       <c r="S26" s="25"/>
@@ -2555,7 +2559,7 @@
         <v>80</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>86</v>
@@ -2586,7 +2590,7 @@
         <v>29</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="T27" s="6">
         <v>0</v>
@@ -2641,7 +2645,7 @@
         <v>93</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="T28" s="6">
         <v>0</v>
@@ -2696,7 +2700,7 @@
         <v>94</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="T29" s="6">
         <v>0</v>
@@ -2751,7 +2755,7 @@
         <v>30</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="T30" s="6">
         <v>0</v>
@@ -2806,7 +2810,7 @@
         <v>31</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="T31" s="6">
         <v>0</v>
